--- a/Data_Learning_Prediction/For_Paper_Feature Selection CHN/FeatureSelection_CHN_GBR_841810_same-all.xlsx
+++ b/Data_Learning_Prediction/For_Paper_Feature Selection CHN/FeatureSelection_CHN_GBR_841810_same-all.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Learning_Prediction\For_Paper_Feature Selection CHN\"/>
@@ -20,13 +20,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="86">
   <si>
     <t>month</t>
   </si>
@@ -544,16 +544,19 @@
     <t>Column Labels</t>
   </si>
   <si>
-    <t>Min of value</t>
+    <t>Row Labels</t>
   </si>
   <si>
-    <t>Row Labels</t>
+    <t>Average of value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,6 +569,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -609,15 +614,51 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6654,32 +6695,32 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:J8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:J23" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="24">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item h="1" x="20"/>
         <item h="1" x="19"/>
         <item h="1" x="21"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
         <item h="1" x="18"/>
         <item h="1" x="22"/>
         <item t="default"/>
@@ -6707,7 +6748,25 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
     <i>
       <x v="9"/>
     </i>
@@ -6716,6 +6775,33 @@
     </i>
     <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
   </rowItems>
   <colFields count="2">
@@ -6755,8 +6841,28 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Min of value" fld="2" subtotal="min" baseField="3" baseItem="0"/>
+    <dataField name="Average of value" fld="2" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <formats count="6">
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <conditionalFormats count="2">
     <conditionalFormat type="all" priority="2">
       <pivotAreas count="1">
@@ -27473,38 +27579,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J8"/>
+  <dimension ref="A3:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A3" sqref="A3:J23"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="2" previousRow="2" click="1" r:id="rId1">
+        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6" customWidth="1"/>
+    <col min="3" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="7" width="6" customWidth="1"/>
+    <col min="6" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.21875" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>82</v>
       </c>
@@ -27515,9 +27624,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -27547,100 +27656,1084 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.57260000000000011</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.56819999999999982</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.56719999999999993</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.56879999999999997</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.59579999999999989</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.58919999999999995</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.60359999999999991</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.58679999999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.6028</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.59139999999999993</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.628</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.60359999999999991</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.6028</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.62740000000000007</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.60160000000000002</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.61399999999999988</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.59139999999999993</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.61440000000000006</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.62320000000000009</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.59660000000000002</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.61780000000000013</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.6048</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.627</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.59640000000000004</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.64680000000000004</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.61680000000000001</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.60139999999999993</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
+        <v>0.622</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.63979999999999992</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.63040000000000007</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.64459999999999995</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.62899999999999989</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B12" s="4">
+        <v>0.62640000000000007</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.60020000000000007</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.628</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.61860000000000004</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.60759999999999992</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.61699999999999999</v>
       </c>
-      <c r="C6" s="3">
+      <c r="O12" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="P12" s="4">
         <v>0.58899999999999997</v>
       </c>
-      <c r="D6" s="3">
+      <c r="Q12" s="4">
         <v>0.59699999999999998</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="R12" s="4">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.61980000000000002</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.62680000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.61619999999999997</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.67880000000000007</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.63439999999999996</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.61420000000000008</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.6167999999999999</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.627</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0.621</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.627</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.5978</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.59959999999999991</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.66099999999999992</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.63159999999999994</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.60120000000000007</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.621</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.54220000000000002</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.60200000000000009</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.59959999999999991</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.62459999999999993</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.59359999999999991</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.6018</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.58940000000000003</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.58640000000000003</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.56579999999999997</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.5948</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.61959999999999993</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.61760000000000004</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.6319999999999999</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.61959999999999993</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.59439999999999993</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.62540000000000007</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.61419999999999997</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.58939999999999992</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.61599999999999988</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.5988</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.65579999999999994</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.61280000000000001</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.59860000000000002</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
         <v>0.63500000000000001</v>
       </c>
-      <c r="G6" s="3">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="M17" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.5554</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.63219999999999998</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.5766</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.5925999999999999</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.58719999999999994</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.5766</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>0.60899999999999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="M18" s="4">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.58040000000000003</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.52360000000000007</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.67079999999999995</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.62519999999999998</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.5746</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.62140000000000006</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.56079999999999997</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.495</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.46799999999999997</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.52140000000000009</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.49119999999999991</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.53240000000000021</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.50520000000000009</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.499</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.503</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.57619999999999993</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.54380000000000006</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.65139999999999998</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.64060000000000006</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.62579999999999991</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.61360000000000003</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.56940000000000002</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.626</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.55820000000000003</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.48739999999999994</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.5544</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.50739999999999996</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.54920000000000013</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.496</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.496</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.505</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.54860000000000009</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.54060000000000008</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.61619999999999997</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.55020000000000002</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
         <v>0.60199999999999998</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.627</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.621</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.61099999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.621</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.59099999999999997</v>
+      <c r="M23" s="4">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0.51600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -27656,10 +28749,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B6:J8">
-    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
+  <conditionalFormatting pivot="1" sqref="B6:J23">
+    <cfRule type="top10" dxfId="12" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B6:J8">
+  <conditionalFormatting pivot="1" sqref="B6:J23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
